--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,104 +512,144 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>180020</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>银华成长先锋混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>78.07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>信达澳银新能源产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1405</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009691</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9454</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009692</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006354</t>
+          <t>519021</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰民裕进取灵活配置混合</t>
+          <t>国泰金鼎价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5413</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001626</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰央企改革股票</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>020015</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>国泰区位优势混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>001626</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达澳银核心科技混合</t>
+          <t>国泰央企改革股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1220,15 +1480,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>74.31</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>信达澳银核心科技混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>020015</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰区位优势混合</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>79.19</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>009691</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>国泰浩益18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>90.98</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>006354</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>国泰民裕进取灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>009692</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>国泰浩益18个月封闭运作混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1602,26 +2002,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2010,7 +2011,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -2026,6 +2026,1578 @@
       </c>
       <c r="H36" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3603,4 +3604,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4154,4 +4155,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4163,7 +4164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4174,17 +4175,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4194,14 +4215,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.77</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4210,14 +4253,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.98</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4226,14 +4291,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.75</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3943</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4242,13 +4329,1329 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0736</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5335</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5550,7 +5551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5561,17 +5562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5581,14 +5602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.76</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5597,14 +5640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.77</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5613,14 +5678,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.98</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5629,14 +5716,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.75</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5645,13 +5754,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6025,7 +6026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6036,17 +6037,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6056,14 +6077,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.73</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6072,14 +6115,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.76</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6088,14 +6153,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.77</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6104,14 +6191,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.98</v>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6120,14 +6229,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.75</v>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6136,13 +6267,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9171</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.76</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1962</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
@@ -660,6 +600,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -686,7 +1878,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,36 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.30</t>
+          <t>125.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5444</t>
+          <t>3.9602</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -754,36 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>56.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9996</t>
+          <t>2.8077</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -792,36 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>信达澳银新能源产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>174.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5726</t>
+          <t>2.3943</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -830,36 +2022,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>27.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3114</t>
+          <t>1.0736</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -868,36 +2060,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>012519</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>大成核心趋势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1788</t>
+          <t>1.0706</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -906,36 +2098,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>012520</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>大成核心趋势混合型证券投资基金D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1405</t>
+          <t>1.0706</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -944,36 +2136,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9831</t>
+          <t>0.9253</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -982,36 +2174,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.80</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9454</t>
+          <t>0.9146</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1020,36 +2212,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>46.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6910</t>
+          <t>0.8812</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1058,36 +2250,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519021</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰金鼎价值混合</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.19</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5413</t>
+          <t>0.6678</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1096,32 +2288,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>73.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3779</t>
+          <t>0.5608</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1134,36 +2326,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3636</t>
+          <t>0.5335</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1172,36 +2364,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3000</t>
+          <t>0.4903</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1210,36 +2402,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>010826</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>大成产业趋势混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2911</t>
+          <t>0.4738</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1248,32 +2440,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2332</t>
+          <t>0.3504</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1286,36 +2478,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1622</t>
+          <t>0.3303</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1324,36 +2516,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>020015</t>
+          <t>090004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰区位优势混合</t>
+          <t>大成精选增值混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>81.57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.3184</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1362,36 +2554,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1377</t>
+          <t>0.3041</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1400,36 +2592,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001626</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰央企改革股票</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1273</t>
+          <t>0.2733</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1438,36 +2630,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>信达澳银星奕混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1244</t>
+          <t>0.2209</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1476,36 +2668,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>001103</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>前海开源工业革命4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>74.16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1147</t>
+          <t>0.1877</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1524,26 +2716,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1145</t>
+          <t>0.1833</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1552,36 +2744,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0809</t>
+          <t>0.1637</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1590,36 +2782,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>87.40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0556</t>
+          <t>0.1521</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1628,36 +2820,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>87.40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.1106</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1666,36 +2858,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009691</t>
+          <t>010827</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
+          <t>大成产业趋势混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.1083</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1704,36 +2896,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1742,36 +2934,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>090009</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>大成行业轮动混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0494</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1780,36 +2972,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006354</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国泰民裕进取灵活配置混合</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0466</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1818,36 +3010,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>010181</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>兴业优势产业混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1856,36 +3048,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1894,36 +3086,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009692</t>
+          <t>010182</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
+          <t>兴业优势产业混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1932,32 +3124,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>82.24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1970,36 +3162,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>82.24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2008,26 +3200,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -2038,7 +3237,557 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3610,557 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>51.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1648</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3357</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0769</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9347</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011188</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银星奕混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>44.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7757</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.75</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4784</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3579</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2684</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011223</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银星奕混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1941</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>090009</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010181</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴业优势产业混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010182</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业优势产业混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4187,7 +5386,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4217,36 +5416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.72</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9602</t>
+          <t>3.5444</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4255,36 +5454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>信达澳银新能源产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.38</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8077</t>
+          <t>1.9996</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4293,36 +5492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>174.77</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3943</t>
+          <t>1.5726</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4331,36 +5530,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.60</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0736</t>
+          <t>1.3114</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4369,36 +5568,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012519</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成核心趋势混合型证券投资基金A</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>1.1788</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4407,36 +5606,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012520</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成核心趋势混合型证券投资基金D</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0706</t>
+          <t>1.1405</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4445,36 +5644,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9253</t>
+          <t>0.9831</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4483,36 +5682,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>011188</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>信达澳银星奕混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>74.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9146</t>
+          <t>0.9454</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -4521,36 +5720,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011188</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合A</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.87</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8812</t>
+          <t>0.6910</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -4559,36 +5758,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>519021</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>国泰金鼎价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>79.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6678</t>
+          <t>0.5413</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -4597,32 +5796,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.40</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5608</t>
+          <t>0.3779</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4635,36 +5834,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5335</t>
+          <t>0.3636</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4673,36 +5872,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4903</t>
+          <t>0.3000</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4711,36 +5910,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010826</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成产业趋势混合A</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4738</t>
+          <t>0.2911</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -4749,32 +5948,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3504</t>
+          <t>0.2332</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4787,36 +5986,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3303</t>
+          <t>0.1622</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -4825,36 +6024,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>090004</t>
+          <t>020015</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成精选增值混合</t>
+          <t>国泰区位优势混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.57</t>
+          <t>84.47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3184</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4863,36 +6062,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>80.84</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3041</t>
+          <t>0.1377</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4901,36 +6100,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>001626</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>国泰央企改革股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2733</t>
+          <t>0.1273</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4939,36 +6138,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011223</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>信达澳银星奕混合C</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>88.77</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2209</t>
+          <t>0.1244</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -4977,36 +6176,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001103</t>
+          <t>011223</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
+          <t>信达澳银星奕混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.16</t>
+          <t>74.31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.1147</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5025,26 +6224,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>95.57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1833</t>
+          <t>0.1145</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -5053,36 +6252,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>99.89</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1637</t>
+          <t>0.0809</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -5091,36 +6290,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -5129,36 +6328,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1106</t>
+          <t>0.0553</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -5167,36 +6366,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010827</t>
+          <t>009691</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大成产业趋势混合C</t>
+          <t>国泰浩益18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1083</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -5205,36 +6404,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0499</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -5243,36 +6442,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>090009</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大成行业轮动混合</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0494</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -5281,36 +6480,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>006354</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>国泰民裕进取灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0466</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -5319,36 +6518,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010181</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>兴业优势产业混合A</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>88.77</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -5357,36 +6556,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>99.89</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -5395,36 +6594,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010182</t>
+          <t>009692</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴业优势产业混合C</t>
+          <t>国泰浩益18个月封闭运作混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -5433,32 +6632,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>27.10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -5471,36 +6670,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -5509,1288 +6708,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.10</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>27.10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9765</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012173</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰兴泽优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6030</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6016</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5566</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3946</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012174</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰兴泽优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2549</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2210</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014339</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长江智能制造混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>014340</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长江智能制造混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2795</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6363</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3856</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1491</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014339</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长江智能制造混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0873</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0731</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000969</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0555</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012521</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>英大稳固增强核心一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012522</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>英大稳固增强核心一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014340</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长江智能制造混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6804,7 +6744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6815,17 +6755,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6835,14 +6795,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.89</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6851,14 +6833,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.73</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6867,14 +6871,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.76</v>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6883,62 +6909,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.85</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>2.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>4.73</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>20.76</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>8.77</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>13.98</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>16.75</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.85</v>
       </c>
     </row>
@@ -600,6 +617,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008848</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融智选对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3237,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3787,7 +4924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5359,7 +6496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6738,7 +7875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002876-三利谱.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>4.73</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>20.76</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>8.77</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>13.98</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>16.75</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +842,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +2777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2514,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +4029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4374,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4924,7 +5965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6496,7 +7537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7873,212 +8914,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9171</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1962</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>